--- a/figures/3d/3d-pie.xlsx
+++ b/figures/3d/3d-pie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilke/Dropbox/projects/books/dataviz/experiments/3d-vanity-charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilke/github/dataviz/figures/3d/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,7 +89,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="10"/>
+      <c:rotX val="80"/>
       <c:hPercent val="80"/>
       <c:rotY val="230"/>
       <c:depthPercent val="40"/>
@@ -206,193 +206,6 @@
               </a:sp3d>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.152369510512217"/>
-                  <c:y val="0.0961874710514127"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{33CD8C0E-E5A8-004E-B165-15DF447BDFF7}" type="PERCENTAGE">
-                      <a:rPr lang="mr-IN" sz="4000">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr>
-                        <a:defRPr/>
-                      </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.140032470168033"/>
-                      <c:h val="0.0637948124131542"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0651782960119676"/>
-                  <c:y val="-0.152974351551644"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{FECCAB0F-CD7D-2E4A-A094-752FB42F7C4A}" type="PERCENTAGE">
-                      <a:rPr lang="mr-IN" sz="4000">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr>
-                        <a:defRPr/>
-                      </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.140112022079714"/>
-                      <c:h val="0.0625829087540528"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$2</c:f>
@@ -413,7 +226,7 @@
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
@@ -1330,7 +1143,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
